--- a/02_Excel/oct3.xlsx
+++ b/02_Excel/oct3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\23_DS_Club1\02_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D015594D-FA37-4129-874E-28B81719E48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C107DCEB-AA5A-42D0-B5EA-8B29D71F7875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -951,6 +951,12 @@
         <v>23</v>
       </c>
     </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L18">
+        <f>ROUND(SUMIF(H2:H15, "&gt;=70", K2:K15)/L11, 2)</f>
+        <v>70.17</v>
+      </c>
+    </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>50</v>
